--- a/data/excel/MFCADPP_에포크50.xlsx
+++ b/data/excel/MFCADPP_에포크50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mplng\uv_net_graph2\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60663752-D14E-4C51-A8CE-E11387597E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBABDD7-9382-42D5-8DDF-651B677696FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3413,7 +3413,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
